--- a/2-Excel/class-01-math-operations.xlsx
+++ b/2-Excel/class-01-math-operations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analyst-Course/1-Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analysis-Course/2-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB59162-3AD1-4DAC-B05F-09EF3DA100E9}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5EB06BD-A657-4EE5-93B9-56C79EED7C72}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPERAÇÕES" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>PREÇO</t>
   </si>
@@ -256,10 +256,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -526,7 +522,7 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,6 +769,9 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="5">
         <f>SUM(D4:D13)</f>
         <v>38</v>
